--- a/outputs/FIJI4.xlsx
+++ b/outputs/FIJI4.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 3. Attitude Towards Risk
-Why: The syllabus is explicitly mentioned as a critical document containing a lot of important information about the course. It is displayed prominently on the homepage, including a callout to "click on Syllabus in the left pane" to begin the course. This aligns with Abi's motivation to gather comprehensive information before starting tasks and planning. The clear instructions reduce the perceived risk and complexity, making it a step that Abi would consider essential for achieving the overall use case.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The syllabus is a critical document that outlines the course structure, requirements, and schedule. Given Abi's motivation to accomplish tasks and plan their term, they would consider finding the syllabus as an essential step. Additionally, Abi's comprehensive information processing style would lead them to seek out the syllabus to gather all necessary information about the course.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Abi will know what to do at this step because the homepage provides clear instructions to "click on Syllabus in the left pane" to begin the course. The Syllabus link is prominently listed in the left-hand navigation menu and is also mentioned multiple times in the main content area, reinforcing its importance. This clear instruction and visibility align with Abi's comprehensive information processing style and help boost her confidence in taking the action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly indicates that the syllabus is an important document to read, as it contains a lot of important information. The word "Syllabus" is highlighted and mentioned multiple times, both in the main text and in the left navigation pane. This aligns with Abi's motivation to accomplish tasks and gather comprehensive information. The clear instructions and emphasis on the syllabus make it evident to Abi that finding the syllabus page is a necessary step.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Upon landing on the syllabus page, Abi will see the "Course Syllabus" header, along with detailed information such as the weekly schedule and links to other relevant documents (e.g., Syllabus PDF, Schedule of Assignments and Quizzes). This comprehensive layout provides clear and structured information about what is due and when, which aligns with Abi's motivation to plan her term and her comprehensive information processing style. Since the page provides a well-organized and detailed overview of the course requirements, Abi will know she is making progress towards her goal and has the information needed to plan her term effectively.</t>
+Why: Upon landing on the syllabus page, Abi will see a detailed weekly schedule and various links to important documents and policies. This comprehensive layout aligns with Abi's motivation to gather all necessary information to plan their term. The clear presentation of the weekly schedule and additional resources will make Abi feel confident that they are making progress toward their goal and have the information needed to complete the course.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Finding a summary of activities and deadlines is a logical and essential step for planning the term effectively. Abi is motivated to gather comprehensive information to understand what needs to be done to complete the course. The "Syllabus – Weekly schedule" section on this page clearly outlines the readings, projects, and due dates for each week, which directly aligns with Abi's goal of planning her term. Therefore, Abi would naturally consider this a vital step towards achieving the overall use case.</t>
+Why: To plan their term effectively, Abi needs to know the summary of activities and deadlines. This information is crucial for understanding the course requirements and managing their time. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding the summary of activities and deadlines as an essential step toward achieving the overall use case. The syllabus page, which includes a weekly schedule, aligns with this need.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Course Summary" section and the "Syllabus – Weekly schedule" are clearly labeled and prominently displayed on the page. The layout is logical and the headings are straightforward, making it easy for Abi to understand that she needs to scroll down to find the detailed list of activities and deadlines. This aligns with Abi's comprehensive information processing style, as the page provides a clear structure that supports her in gathering the necessary information. Additionally, the clear labeling and structured presentation help boost Abi's confidence in navigating the page and completing the action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly labels the "Course Summary" section, which is prominently displayed and easy to locate. The detailed weekly schedule under "Syllabus – Weekly schedule" provides a comprehensive overview of activities and deadlines. This aligns with Abi's motivation to gather all necessary information to plan their term and their comprehensive information processing style. The layout and labeling make it clear what Abi needs to do next, which is to scroll down and read through the course summary.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Upon scrolling down to the "Course Summary" and "Syllabus – Weekly schedule," Abi will see a detailed list of weekly activities, readings, projects, and due dates. This well-organized presentation directly addresses her motivation to find out what needs to be done to complete the course and plan her term. The comprehensive and clear layout supports her information processing style, allowing her to verify that she has made progress toward her goal by obtaining all necessary information about activities and deadlines. Therefore, Abi will know that she did the right thing and is making progress toward her goal.</t>
+Why: After scrolling down to the "Course Summary" section, Abi will see a detailed weekly schedule that outlines the activities and deadlines. This clear and organized presentation of information will help Abi understand that they are making progress toward their goal of planning their term. The comprehensive details provided in the schedule align with Abi's motivation to gather all necessary information and their preference for a thorough information processing style. This will reassure Abi that they have done the right thing and have the information needed to complete the course.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Tools and software setup are often essential components for completing coursework, especially in a computer science course. Abi is motivated to gather all the necessary information to plan her term effectively, and knowing what tools to install is a critical part of that. The "Tools" link is visibly located at the top of the syllabus page, indicating that this information is available. This aligns with Abi's comprehensive information processing style, as she would consider the setup of necessary tools an important step in preparing for the course. Therefore, Abi would have thought of finding the list of tools to be installed/setup as a step toward achieving the overall use case.</t>
+Why: To complete the course successfully, Abi needs to ensure they have all the necessary tools installed and set up. This is a fundamental step in preparing for the coursework and aligns with Abi's motivation to accomplish tasks and gather comprehensive information. The presence of a "Tools" link on the syllabus page indicates that this information is available and necessary, making it clear to Abi that finding the list of tools is a step toward achieving the overall use case.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Tools" tab is prominently displayed at the top of the syllabus page, making it easy for Abi to identify and click on it to find the list of tools to be installed/setup for the course. The clear labeling and visibility of the "Tools" tab align with Abi's comprehensive information processing style, as it provides a straightforward path to gather necessary information. Additionally, the presence of the tab boosts Abi's confidence in navigating the page and taking the action, as it is clearly marked and logically related to her goal of planning the term. Therefore, the page is good enough for Abi to take this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Tools" tab is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify. Given Abi's motivation to gather all necessary information to complete the course and their comprehensive information processing style, they will recognize that clicking on the "Tools" tab is the appropriate action to find the list of tools to be installed or set up for the course. The page layout and labeling provide clear guidance for Abi to take this action.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Tools" tab, Abi will land on a page that provides detailed information about the various tools needed for the course, such as Canvas, Ed Discussion, PyCharm, GitHub, GradeScope, and Repl.it. Each tool is listed with clear instructions on how to access and set them up, making it evident that she has found the right information. This directly supports her motivation to gather all necessary information to plan her term and fits her comprehensive information processing style, as the page is thorough and well-organized. Consequently, Abi will know she did the right thing and is making progress toward her goal, and she will get all the information she needs.</t>
+Why: After clicking on the "Tools" tab, Abi will land on a page that provides a detailed list of tools required for the course, including Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. Each tool is described with instructions and links for setup. This comprehensive information aligns with Abi's motivation to gather all necessary details to complete the course and their preference for a thorough information processing style. The clear and organized presentation of the tools and setup instructions will make Abi feel confident that they have done the right thing and are making progress toward their goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/FIJI4.xlsx
+++ b/outputs/FIJI4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The syllabus is a critical document that outlines the course structure, requirements, and schedule. Given Abi's motivation to accomplish tasks and plan their term, they would likely consider finding the syllabus as an essential step. Additionally, Abi's comprehensive information processing style would lead them to seek out detailed information about the course, which the syllabus provides.</t>
+Why: The syllabus is a crucial document for understanding the course structure, requirements, and schedule, which aligns with Abi's motivation to plan their term effectively. Additionally, the page explicitly mentions the importance of reading the syllabus and provides a clear link to it, which supports Abi's comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly indicates that the syllabus is an important document to read, as it contains a lot of important information. The word "Syllabus" is highlighted and mentioned multiple times, both in the main text and in the left navigation pane. This aligns with Abi's motivation to accomplish tasks and gather comprehensive information. The clear instructions and visibility of the "Syllabus" link make it easy for Abi to know what to do at this step.</t>
+Why: The page clearly instructs the user to click on "Syllabus" in the left pane to read through the syllabus, which is essential for planning the term. This aligns with Abi's motivation to understand what needs to be done to complete the course. Additionally, the explicit mention and clear link to the syllabus support Abi's comprehensive information processing style, making it straightforward for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Syllabus" link, Abi lands on a page titled "Course Syllabus," which clearly indicates that they are in the right place. The page provides detailed information, including a weekly schedule and links to various syllabus-related documents. This aligns with Abi's motivation to gather comprehensive information to plan their term and their information processing style, which involves reading and understanding detailed information. The clear layout and relevant content ensure that Abi knows they are making progress toward their goal.</t>
+Why: Upon landing on the Syllabus page, Abi will see a detailed weekly schedule and links to important documents such as the syllabus PDF and schedule of assignments and quizzes. This provides comprehensive information about what is due each week and other course details, aligning with Abi's motivation to plan their term and their comprehensive information processing style. The clear presentation of the syllabus and related documents will confirm to Abi that they are making progress toward their goal.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: To plan their term effectively, Abi would need to know the summary of activities and deadlines. This information is crucial for understanding the course requirements and managing their time. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding the summary of activities and deadlines as an essential step toward achieving the overall use case. The syllabus page, which includes a weekly schedule, aligns with this need.</t>
+Why: To plan their term effectively, Abi needs to know the summary of activities and deadlines. This information is crucial for understanding the course requirements and managing time effectively, which aligns with Abi's motivation. Additionally, the comprehensive weekly schedule provided on the syllabus page supports Abi's information processing style, as it offers a detailed overview of what is due each week.</t>
         </is>
       </c>
     </row>
@@ -462,16 +462,16 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page is clearly labeled with "Course Syllabus" and includes a section titled "Course Summary," which is prominently displayed. This aligns with Abi's motivation to gather comprehensive information to plan their term. The layout is straightforward, and the "Syllabus – Weekly schedule" table provides a clear summary of activities and deadlines. Abi's information processing style, which involves reading and understanding detailed information, will guide them to scroll down and read through the "Course Summary" section.</t>
+Why: The page clearly labels the "Course Summary" and provides a detailed "Syllabus – Weekly schedule" right below it. This aligns with Abi's motivation to find the summary of activities and deadlines to plan their term. The layout and labeling make it straightforward for Abi to know that scrolling down to read through the "Course Summary" will provide the necessary information, supporting their comprehensive information processing style.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the "Syllabus – Weekly schedule" table provides a summary of activities and deadlines, it may not be comprehensive enough for Abi's information processing style, which involves gathering detailed information. The table lists what is "due" in class but does not provide detailed descriptions of each activity or deadline. Additionally, Abi's low computer self-efficacy might make them uncertain if they have found all the necessary information, especially if they are looking for more detailed explanations or additional context. Therefore, Abi might not feel confident that they have all the information they need to plan their term effectively.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After scrolling down to the "Course Summary" and reading through the "Syllabus – Weekly schedule," Abi will see a detailed list of activities and deadlines for each week. This comprehensive information aligns with Abi's motivation to plan their term and their need for detailed information to understand what is required to complete the course. The clear presentation of the weekly schedule will confirm to Abi that they are making progress toward their goal and provide all the necessary information they need.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: To complete the course successfully, Abi would need to know what tools are required and ensure they are set up correctly. This is a fundamental step in preparing for the course, as having the right tools is essential for completing assignments and projects. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding the list of tools to be installed/setup as an essential step toward achieving the overall use case. The presence of a "Tools" link on the syllabus page further supports this.</t>
+Why: To complete the course successfully, Abi needs to know what tools are required and how to set them up. This is essential for planning their term and ensuring they have all necessary resources, aligning with Abi's motivation. Additionally, the "Tools" link at the top of the page suggests that information about required tools is available, which supports Abi's comprehensive information processing style. Therefore, Abi would consider finding the list of tools as a step toward achieving the overall use case.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Tools" tab is clearly visible at the top of the page, and it is reasonable for Abi to infer that this tab would contain information about the tools needed for the course. Given Abi's motivation to gather all necessary information to complete the course and their comprehensive information processing style, they would likely recognize that clicking on the "Tools" tab is a logical step to find the list of tools to be installed/setup for the course. The page layout and labeling are clear enough for Abi to know what to do at this step.</t>
+Why: The "Tools" tab is clearly labeled and prominently placed at the top of the page, indicating that it likely contains information about the tools needed for the course. This aligns with Abi's motivation to find and set up the necessary tools to complete the course. The clear labeling and placement of the tab support Abi's comprehensive information processing style, making it straightforward for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Tools" tab, Abi lands on a page that provides detailed information about the various tools required for the course, such as Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. The page includes descriptions and instructions for each tool, which aligns with Abi's motivation to gather all necessary information to complete the course and their comprehensive information processing style. The detailed and organized presentation of the tools ensures that Abi knows they are making progress toward their goal and has all the information they need.</t>
+Why: After clicking on the "Tools" tab, Abi will land on a page that provides detailed information about the various tools required for the course, such as Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. This comprehensive list and the detailed instructions for each tool align with Abi's motivation to find and set up the necessary tools to complete the course. The clear and detailed presentation of the information supports Abi's comprehensive information processing style, confirming that they did the right thing and are making progress toward their goal.</t>
         </is>
       </c>
     </row>
